--- a/apps/reports/excell/digital_month_template.xlsx
+++ b/apps/reports/excell/digital_month_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{534FD089-ADF4-4DC5-91C2-7CAF9A806C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0523A4AC-6010-4BA1-B52A-3A48D6E76DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>План</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Массовые мероприятия</t>
   </si>
   <si>
-    <t>(всего)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">  из них до 14 лет включительно</t>
     </r>
@@ -87,9 +84,6 @@
       </rPr>
       <t xml:space="preserve">                       </t>
     </r>
-  </si>
-  <si>
-    <t>из них</t>
   </si>
   <si>
     <t>Мероприятия в стационаре</t>
@@ -573,20 +567,83 @@
     <t>VisitReport.qty_visited_15_35</t>
   </si>
   <si>
-    <t>VisitReport.qty_visited_out_station</t>
-  </si>
-  <si>
-    <t>VisitPlan.total_visits</t>
-  </si>
-  <si>
-    <t>VisitReport.qty_visited_14 + VisitReport.qty_visited_15_35 + qty_visited_other</t>
+    <t>RegsPlan.total_regs</t>
+  </si>
+  <si>
+    <t>VisitReport.qty_reg_14</t>
+  </si>
+  <si>
+    <t>VisitReport.qty_reg_15_35</t>
+  </si>
+  <si>
+    <t>VisitReport.qty_reg_14  + VisitReport.qty_reg_15_35 + qty_reg_other</t>
+  </si>
+  <si>
+    <t>VisitReport.qty_prlib + VisitReport.qty_litres</t>
+  </si>
+  <si>
+    <t>BookReport.qty_books_14</t>
+  </si>
+  <si>
+    <t>BookReport.qty_books_15_35</t>
+  </si>
+  <si>
+    <t>(VisitReport.qty_reg_14  + VisitReport.qty_reg_15_35 + qty_reg_other) + (VisitReport.qty_prlib + VisitReport.qty_litres)</t>
+  </si>
+  <si>
+    <t>(BookReport.qty_books_14 + BookReport.qty_books_15_35 +  BookReport.qty_books_other)</t>
+  </si>
+  <si>
+    <t>(BookReport.qty_books_neb + BookReport.qty_books_prlib + BookReport.qty_books_litres + BookReport.qty_books_consultant + BookReport.qty_books_local_library)</t>
+  </si>
+  <si>
+    <t>(BookReport.qty_books_14 + BookReport.qty_books_15_35 +  BookReport.qty_books_other) + (BookReport.qty_books_neb + BookReport.qty_books_prlib + BookReport.qty_books_litres + BookReport.qty_books_consultant + BookReport.qty_books_local_library)</t>
+  </si>
+  <si>
+    <t>BookPlan.total_books</t>
+  </si>
+  <si>
+    <t>(VisitReport.qty_visited_14 + VisitReport.qty_visited_15_35 + VisitReport.qty_visited_other)</t>
+  </si>
+  <si>
+    <t>VisitReport.qty_visited_other</t>
+  </si>
+  <si>
+    <t>(VisitReport.qty_visited_online + VisitReport.qty_visited_prlib + VisitReport.qty_visited_litres)</t>
+  </si>
+  <si>
+    <t>(VisitReport.qty_visited_14 + VisitReport.qty_visited_15_35 + VisitReport.qty_visited_other) + (VisitReport.qty_visited_other) + (VisitReport.qty_visited_online + VisitReport.qty_visited_prlib + VisitReport.qty_visited_litres) + (4 пункт)</t>
+  </si>
+  <si>
+    <t>(VisitReport.qty_visited_invalids + Event.invalids)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if Event.paid == True (Event.age_14 + Event.age_35 + Event.age_other) else 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if Event.paid == True (Event.invalids) else 0 </t>
+  </si>
+  <si>
+    <t>BookReport.qty_books_reference_do_14</t>
+  </si>
+  <si>
+    <t>BookReport.qty_books_reference_14</t>
+  </si>
+  <si>
+    <t>BookReport.qty_books_reference_online</t>
+  </si>
+  <si>
+    <t>из них от 15 до 30 лет</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,16 +757,35 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -856,24 +932,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -890,9 +984,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -903,19 +994,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -929,15 +1014,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -952,22 +1028,73 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1249,465 +1376,453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.5703125" customWidth="1"/>
     <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="64.85546875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="64.85546875" style="25" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="111" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="3" spans="1:4" ht="31.5">
+      <c r="A3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="71.25" customHeight="1">
+      <c r="A4" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="35"/>
+    </row>
+    <row r="7" spans="1:4" ht="27.75" thickBot="1">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="35"/>
+    </row>
+    <row r="8" spans="1:4" ht="39.75" customHeight="1" thickBot="1">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="27">
+        <v>0</v>
+      </c>
+      <c r="D8" s="35"/>
+    </row>
+    <row r="9" spans="1:4" ht="47.25" customHeight="1" thickBot="1">
+      <c r="A9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A10" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:4" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="35"/>
+    </row>
+    <row r="15" spans="1:4" ht="45" customHeight="1" thickBot="1">
+      <c r="A15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="26">
+        <v>0</v>
+      </c>
+      <c r="D15" s="35"/>
+    </row>
+    <row r="16" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:8" ht="60.75" thickBot="1">
+      <c r="A17" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-    </row>
-    <row r="3" spans="1:4" ht="31.5">
-      <c r="A3" s="29" t="s">
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1">
+      <c r="A19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A6" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="30"/>
-    </row>
-    <row r="7" spans="1:4" ht="21" thickBot="1">
-      <c r="A7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:4" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:4" ht="47.25" customHeight="1" thickBot="1">
-      <c r="A9" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A10" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="23"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="24"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A12" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="23"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="24"/>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:4" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A17" s="7" t="s">
+      <c r="D19" s="35"/>
+    </row>
+    <row r="20" spans="1:8" ht="62.25" customHeight="1" thickBot="1">
+      <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A18" s="9" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="35"/>
+    </row>
+    <row r="21" spans="1:8" ht="72" customHeight="1" thickBot="1">
+      <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="23"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="20"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="23"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="24"/>
-    </row>
-    <row r="23" spans="1:8" ht="62.25" customHeight="1" thickBot="1">
-      <c r="A23" s="7" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="35"/>
+    </row>
+    <row r="22" spans="1:8" ht="60" customHeight="1" thickBot="1">
+      <c r="A22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="1:8" ht="72" customHeight="1" thickBot="1">
-      <c r="A24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:8" ht="60" customHeight="1" thickBot="1">
-      <c r="A25" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="15"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="35"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="35"/>
+    </row>
+    <row r="24" spans="1:8" ht="54.75" customHeight="1" thickBot="1">
+      <c r="A24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="35"/>
+    </row>
+    <row r="25" spans="1:8" ht="75.75" customHeight="1" thickBot="1">
+      <c r="A25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="35"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" thickBot="1">
       <c r="A26" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:8" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A27" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="1:8" ht="75.75" customHeight="1" thickBot="1">
-      <c r="A28" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A29" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A30" s="7" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="35"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A31" s="7" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="35"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" spans="1:8" ht="61.5" customHeight="1" thickBot="1">
-      <c r="A32" s="7" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="35"/>
+    </row>
+    <row r="29" spans="1:8" ht="61.5" customHeight="1" thickBot="1">
+      <c r="A29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="15"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75">
-      <c r="A33" s="11" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A30" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="23"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75">
-      <c r="A34" s="12" t="s">
+      <c r="B30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="35"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A31" s="30"/>
+      <c r="B31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="35"/>
+    </row>
+    <row r="32" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A32" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="24"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A35" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="15"/>
-    </row>
-    <row r="36" spans="1:4" ht="24" customHeight="1">
-      <c r="A36" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:4" ht="30.75" customHeight="1">
-      <c r="A37" s="19" t="s">
+      <c r="B32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="35"/>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A33" s="32"/>
+      <c r="B33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="35"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A34" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="35"/>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A35" s="34"/>
+      <c r="B35" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="35"/>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1">
+      <c r="A36" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="23"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A38" s="20"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="24"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75">
-      <c r="A39" s="1" t="s">
+      <c r="B36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="35"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A37" s="17"/>
+      <c r="B37" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="35"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A38" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="23"/>
-    </row>
-    <row r="40" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A40" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1">
-      <c r="A41" s="21" t="s">
+      <c r="B38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="35"/>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A39" s="34"/>
+      <c r="B39" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="35"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A40" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="35"/>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A41" s="34"/>
+      <c r="B41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="26"/>
+      <c r="D41" s="35"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.75">
+      <c r="A42" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="23"/>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="22"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="24"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.75">
-      <c r="A43" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="15"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.75">
-      <c r="A44" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="15"/>
-    </row>
-    <row r="45" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A45" s="7" t="s">
+      <c r="B42" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="26"/>
+      <c r="D42" s="35"/>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A43" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="15"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A46" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="23"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A47" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="24"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.75">
-      <c r="A48" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="23"/>
-    </row>
-    <row r="49" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A49" s="9" t="s">
+      <c r="B43" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="24"/>
-    </row>
-    <row r="50" spans="1:4" ht="15.75">
-      <c r="A50" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="15"/>
-    </row>
-    <row r="51" spans="1:4" ht="15.75">
-      <c r="A51" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="15"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
+  <mergeCells count="14">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="D18:D43"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
   </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/apps/reports/excell/digital_month_template.xlsx
+++ b/apps/reports/excell/digital_month_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0523A4AC-6010-4BA1-B52A-3A48D6E76DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EC7424-3CF1-4C25-82A7-C9981EA8C716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
   <si>
     <t>План</t>
   </si>
@@ -637,6 +637,48 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>Event.quantity</t>
+  </si>
+  <si>
+    <t>Event.quantity если Event.out_of_station == 0</t>
+  </si>
+  <si>
+    <t>Event.quantity если Event.out_of_station != 0</t>
+  </si>
+  <si>
+    <t>Event.age_14 + Event.age_35 + Event.age_other</t>
+  </si>
+  <si>
+    <t>если Event.out_of_station != 0 то Event.age_14 + Event.age_35 + Event.age_other</t>
+  </si>
+  <si>
+    <t>если Event.out_of_station == 0 то Event.age_14 + Event.age_35 + Event.age_other</t>
+  </si>
+  <si>
+    <t>если Event.out_of_station == 0 и Event.age_14 то Event.quantity</t>
+  </si>
+  <si>
+    <t>если Event.out_of_station == 0 и Event.age_35 то Event.quantity</t>
+  </si>
+  <si>
+    <t>если Event.out_of_station == 0 и Event.age_14 то Event.age_14</t>
+  </si>
+  <si>
+    <t>если Event.out_of_station == 0 и Event.age_35 то Event.age_35</t>
+  </si>
+  <si>
+    <t>если Event.age_14 != 0 то сумма Event.quantity где  Event.age_14 != 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Event.age_14</t>
+  </si>
+  <si>
+    <t>если Event.age_35 != 0 то сумма Event.quantity где  Event.age_35 != 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Event.age_35</t>
   </si>
 </sst>
 </file>
@@ -1003,25 +1045,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1041,24 +1068,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1069,32 +1078,65 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1378,34 +1420,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.5703125" customWidth="1"/>
     <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="64.85546875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="64.85546875" style="20" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="111" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="3" spans="1:4" ht="31.5">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1413,16 +1455,16 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="71.25" customHeight="1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="28" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1431,130 +1473,130 @@
         <v>23</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="36"/>
     </row>
     <row r="7" spans="1:4" ht="27.75" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="36"/>
     </row>
     <row r="8" spans="1:4" ht="39.75" customHeight="1" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="12"/>
-      <c r="C8" s="27">
+      <c r="C8" s="22">
         <v>0</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="36"/>
     </row>
     <row r="9" spans="1:4" ht="47.25" customHeight="1" thickBot="1">
       <c r="A9" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="37"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="38" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1">
       <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="39"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="29" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="35"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="12"/>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:4" ht="35.25" customHeight="1" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="12"/>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="35"/>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="26">
+      <c r="C15" s="21">
         <v>0</v>
       </c>
-      <c r="D15" s="35"/>
+      <c r="D15" s="36"/>
     </row>
     <row r="16" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="12"/>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="17" spans="1:8" ht="60.75" thickBot="1">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="28" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1562,156 +1604,164 @@
       <c r="A18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="29" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="18"/>
+      <c r="D18" s="35"/>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1">
       <c r="A19" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="29" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="35"/>
+      <c r="D19" s="36"/>
     </row>
     <row r="20" spans="1:8" ht="62.25" customHeight="1" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="12"/>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="35"/>
+      <c r="D20" s="36"/>
     </row>
     <row r="21" spans="1:8" ht="72" customHeight="1" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="12"/>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="35"/>
+      <c r="D21" s="36"/>
     </row>
     <row r="22" spans="1:8" ht="60" customHeight="1" thickBot="1">
       <c r="A22" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="35"/>
+      <c r="D22" s="36"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="12"/>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="36"/>
     </row>
     <row r="24" spans="1:8" ht="54.75" customHeight="1" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="12"/>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="35"/>
+      <c r="D24" s="36"/>
     </row>
     <row r="25" spans="1:8" ht="75.75" customHeight="1" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="12"/>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="35"/>
+      <c r="D25" s="36"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" thickBot="1">
       <c r="A26" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="12"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="35"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="36"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="12"/>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="35"/>
+      <c r="D27" s="36"/>
     </row>
     <row r="28" spans="1:8" ht="16.5" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="12"/>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="35"/>
+      <c r="D28" s="36"/>
     </row>
     <row r="29" spans="1:8" ht="61.5" customHeight="1" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="12"/>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="35"/>
+      <c r="D29" s="36"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="35"/>
+      <c r="C30" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="36"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="30"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="35"/>
+      <c r="C31" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="36"/>
     </row>
     <row r="32" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="40" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="35"/>
+      <c r="C32" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="36"/>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A33" s="32"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="35"/>
+      <c r="C33" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="36"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="33" t="s">
@@ -1720,34 +1770,42 @@
       <c r="B34" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="35"/>
+      <c r="C34" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="36"/>
     </row>
     <row r="35" spans="1:4" ht="16.5" thickBot="1">
       <c r="A35" s="34"/>
       <c r="B35" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="35"/>
+      <c r="C35" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="36"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="31" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="35"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A37" s="17"/>
+      <c r="C36" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="36"/>
+    </row>
+    <row r="37" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A37" s="42"/>
       <c r="B37" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="35"/>
+      <c r="C37" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="36"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" s="33" t="s">
@@ -1756,16 +1814,20 @@
       <c r="B38" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="35"/>
+      <c r="C38" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="36"/>
     </row>
     <row r="39" spans="1:4" ht="16.5" thickBot="1">
       <c r="A39" s="34"/>
       <c r="B39" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="35"/>
+      <c r="C39" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="36"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1">
       <c r="A40" s="33" t="s">
@@ -1774,16 +1836,20 @@
       <c r="B40" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="35"/>
+      <c r="C40" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="36"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A41" s="34"/>
       <c r="B41" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="35"/>
+      <c r="C41" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="36"/>
     </row>
     <row r="42" spans="1:4" ht="15.75">
       <c r="A42" s="9" t="s">
@@ -1792,18 +1858,22 @@
       <c r="B42" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="35"/>
-    </row>
-    <row r="43" spans="1:4" ht="16.5" thickBot="1">
+      <c r="C42" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="36"/>
+    </row>
+    <row r="43" spans="1:4" ht="30.75" thickBot="1">
       <c r="A43" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="19"/>
+      <c r="C43" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/apps/reports/excell/digital_month_template.xlsx
+++ b/apps/reports/excell/digital_month_template.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB320D8-616C-46C4-8D38-4FBD2209B012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97065128-53DC-49D8-AB5A-3ACE1596CBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -128,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +204,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -411,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -469,13 +477,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -521,6 +523,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -803,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -816,10 +830,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="111" customHeight="1">
-      <c r="A1" s="35"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="36"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="3" spans="1:4" ht="31.5" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -839,310 +853,310 @@
       <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" ht="32.25" customHeight="1" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="30"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
       <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:4" ht="39.75" customHeight="1" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="31"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:4" ht="47.25" customHeight="1" thickBot="1">
       <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" ht="21.75" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="30"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:4" ht="21.75" customHeight="1" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4" ht="35.25" customHeight="1" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="31"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="32"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
       <c r="A16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="30"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="28"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="31"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="29"/>
     </row>
     <row r="19" spans="1:8" ht="62.25" customHeight="1" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="29"/>
     </row>
     <row r="20" spans="1:8" ht="72" customHeight="1" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:8" ht="60" customHeight="1" thickBot="1">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="31"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="31"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="29"/>
     </row>
     <row r="23" spans="1:8" ht="54.75" customHeight="1" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="31"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:8" ht="75.75" customHeight="1" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="31"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A25" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="31"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="31"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="29"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="31"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="29"/>
     </row>
     <row r="28" spans="1:8" ht="61.5" customHeight="1" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="31"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="29"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="37" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="31"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="29"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="40"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="31"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="29"/>
     </row>
     <row r="31" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="31"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="29"/>
     </row>
     <row r="32" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A32" s="42"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="31"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="29"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="31"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="29"/>
     </row>
     <row r="34" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A34" s="34"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="31"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="29"/>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="31" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="31"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="29"/>
     </row>
     <row r="36" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A36" s="34"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="31"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="29"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="36" t="s">
         <v>31</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="31"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A38" s="34"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="31"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="31"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="29"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A40" s="34"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="31"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="29"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1">
       <c r="A41" s="9" t="s">
@@ -1151,8 +1165,8 @@
       <c r="B41" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="31"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="29"/>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
       <c r="A42" s="7" t="s">
@@ -1161,17 +1175,16 @@
       <c r="B42" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="32"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="D5:D9"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="D17:D42"/>
     <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B17:B28"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A29:A30"/>
@@ -1179,6 +1192,8 @@
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="D11:D15"/>
     <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="B26:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/apps/reports/excell/digital_month_template.xlsx
+++ b/apps/reports/excell/digital_month_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97065128-53DC-49D8-AB5A-3ACE1596CBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48ECCDDE-86F1-4706-9B2B-33EC7DFE2C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Основные показатели с нарастающим итогом с нач. года</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>Мероприятия вне стационара</t>
-  </si>
-  <si>
-    <t>(вне стен б-ки)</t>
   </si>
 </sst>
 </file>
@@ -213,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,8 +223,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -236,26 +239,229 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -267,150 +473,48 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -419,121 +523,168 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,369 +968,367 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="111" customHeight="1">
-      <c r="A1" s="33"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="34"/>
-    </row>
-    <row r="3" spans="1:4" ht="31.5" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="71.25" customHeight="1">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:4" ht="71.25" customHeight="1" thickBot="1">
+      <c r="A4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="24"/>
-    </row>
-    <row r="5" spans="1:4" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4" ht="32.25" customHeight="1">
+      <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="28"/>
-    </row>
-    <row r="6" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A6" s="15" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" ht="34.5" customHeight="1">
+      <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="29"/>
-    </row>
-    <row r="7" spans="1:4" ht="21" customHeight="1" thickBot="1">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="21" customHeight="1">
+      <c r="A7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="29"/>
-    </row>
-    <row r="8" spans="1:4" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A8" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" ht="47.25" customHeight="1" thickBot="1">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="30"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="25"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:4" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A12" s="5" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="29"/>
-    </row>
-    <row r="13" spans="1:4" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A13" s="5" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" ht="35.25" customHeight="1">
+      <c r="A13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="29"/>
-    </row>
-    <row r="14" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A14" s="6" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" ht="45" customHeight="1">
+      <c r="A14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="29"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="30"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="13" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A17" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="28"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="29"/>
-    </row>
-    <row r="19" spans="1:8" ht="62.25" customHeight="1" thickBot="1">
-      <c r="A19" s="5" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="42"/>
+    </row>
+    <row r="19" spans="1:8" ht="62.25" customHeight="1">
+      <c r="A19" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="29"/>
-    </row>
-    <row r="20" spans="1:8" ht="72" customHeight="1" thickBot="1">
-      <c r="A20" s="5" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="42"/>
+    </row>
+    <row r="20" spans="1:8" ht="72" customHeight="1">
+      <c r="A20" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="29"/>
-    </row>
-    <row r="21" spans="1:8" ht="60" customHeight="1" thickBot="1">
-      <c r="A21" s="8" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="42"/>
+    </row>
+    <row r="21" spans="1:8" ht="60" customHeight="1">
+      <c r="A21" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="29"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A22" s="5" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="42"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A22" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="29"/>
-    </row>
-    <row r="23" spans="1:8" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A23" s="5" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="42"/>
+    </row>
+    <row r="23" spans="1:8" ht="54.75" customHeight="1">
+      <c r="A23" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="42"/>
     </row>
     <row r="24" spans="1:8" ht="75.75" customHeight="1" thickBot="1">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="29"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="42"/>
     </row>
     <row r="25" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="29"/>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A26" s="5" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="45"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A26" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="29"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A27" s="5" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="42"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A27" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="29"/>
-    </row>
-    <row r="28" spans="1:8" ht="61.5" customHeight="1" thickBot="1">
-      <c r="A28" s="5" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="42"/>
+    </row>
+    <row r="28" spans="1:8" ht="61.5" customHeight="1">
+      <c r="A28" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="29"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="42"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="29"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="42"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="38"/>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="53"/>
+      <c r="B30" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="29"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="42"/>
     </row>
     <row r="31" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="29"/>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A32" s="40"/>
-      <c r="B32" s="11" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="42"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A32" s="47"/>
+      <c r="B32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="29"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="42"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="29"/>
-    </row>
-    <row r="34" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A34" s="32"/>
-      <c r="B34" s="11" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="42"/>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A34" s="47"/>
+      <c r="B34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="29"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="42"/>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="29"/>
-    </row>
-    <row r="36" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A36" s="32"/>
-      <c r="B36" s="11" t="s">
+      <c r="C35" s="52"/>
+      <c r="D35" s="42"/>
+    </row>
+    <row r="36" spans="1:4" ht="34.5" customHeight="1">
+      <c r="A36" s="53"/>
+      <c r="B36" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="29"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="42"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="29"/>
-    </row>
-    <row r="38" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A38" s="32"/>
-      <c r="B38" s="11" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="42"/>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A38" s="47"/>
+      <c r="B38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="29"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="42"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="29"/>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A40" s="32"/>
-      <c r="B40" s="11" t="s">
+      <c r="C39" s="6"/>
+      <c r="D39" s="42"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A40" s="47"/>
+      <c r="B40" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="29"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="42"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="29"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="42"/>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A42" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="11" t="s">
+      <c r="A42" s="56"/>
+      <c r="B42" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="30"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="D5:D9"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A1:D1"/>
@@ -1194,6 +1343,7 @@
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="B17:B24"/>
     <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A41:A42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/apps/reports/excell/digital_month_template.xlsx
+++ b/apps/reports/excell/digital_month_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48ECCDDE-86F1-4706-9B2B-33EC7DFE2C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D41261-6883-4EC0-91C1-D2BDF4FA8DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,18 +542,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -626,65 +614,77 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -968,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -980,352 +980,352 @@
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="111" customHeight="1">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="3" spans="1:4" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A3" s="17" t="s">
+    <row r="1" spans="1:4" ht="23.25">
+      <c r="A1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="50"/>
+    </row>
+    <row r="3" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="71.25" customHeight="1" thickBot="1">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:4" ht="34.5" thickBot="1">
+      <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A5" s="20" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:4" ht="34.5" customHeight="1">
-      <c r="A6" s="14" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="45"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="D6" s="46"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="39.75" customHeight="1">
-      <c r="A8" s="59" t="s">
+      <c r="D7" s="46"/>
+    </row>
+    <row r="8" spans="1:4" ht="31.5">
+      <c r="A8" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="47.25" customHeight="1" thickBot="1">
-      <c r="A9" s="60" t="s">
+      <c r="D8" s="46"/>
+    </row>
+    <row r="9" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A9" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A10" s="28" t="s">
+      <c r="D9" s="46"/>
+    </row>
+    <row r="10" spans="1:4" ht="34.5" thickBot="1">
+      <c r="A10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-    </row>
-    <row r="11" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A11" s="26" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75">
+      <c r="A11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="45"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A13" s="15" t="s">
+      <c r="D12" s="46"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75">
+      <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" ht="45" customHeight="1">
-      <c r="A14" s="16" t="s">
+      <c r="D13" s="46"/>
+    </row>
+    <row r="14" spans="1:4" ht="31.5">
+      <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A15" s="31" t="s">
+      <c r="D14" s="46"/>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A15" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A16" s="34" t="s">
+      <c r="D15" s="46"/>
+    </row>
+    <row r="16" spans="1:4" ht="34.5" thickBot="1">
+      <c r="A16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="37" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75">
+      <c r="A17" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1">
-      <c r="A18" s="41" t="s">
+      <c r="B17" s="58"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="52"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75">
+      <c r="A18" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="42"/>
-    </row>
-    <row r="19" spans="1:8" ht="62.25" customHeight="1">
-      <c r="A19" s="61" t="s">
+      <c r="D18" s="53"/>
+    </row>
+    <row r="19" spans="1:8" ht="31.5">
+      <c r="A19" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="42"/>
-    </row>
-    <row r="20" spans="1:8" ht="72" customHeight="1">
-      <c r="A20" s="61" t="s">
+      <c r="D19" s="53"/>
+    </row>
+    <row r="20" spans="1:8" ht="47.25">
+      <c r="A20" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="42"/>
-    </row>
-    <row r="21" spans="1:8" ht="60" customHeight="1">
-      <c r="A21" s="61" t="s">
+      <c r="D20" s="53"/>
+    </row>
+    <row r="21" spans="1:8" ht="31.5">
+      <c r="A21" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="42"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A22" s="41" t="s">
+      <c r="D21" s="53"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75">
+      <c r="A22" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="42"/>
-    </row>
-    <row r="23" spans="1:8" ht="54.75" customHeight="1">
-      <c r="A23" s="41" t="s">
+      <c r="D22" s="53"/>
+    </row>
+    <row r="23" spans="1:8" ht="31.5">
+      <c r="A23" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="12"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="42"/>
-    </row>
-    <row r="24" spans="1:8" ht="75.75" customHeight="1" thickBot="1">
-      <c r="A24" s="43" t="s">
+      <c r="D23" s="53"/>
+    </row>
+    <row r="24" spans="1:8" ht="48" thickBot="1">
+      <c r="A24" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="42"/>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A25" s="44" t="s">
+      <c r="D24" s="53"/>
+    </row>
+    <row r="25" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A25" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="45"/>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A26" s="46" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="54"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75">
+      <c r="A26" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="42"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A27" s="41" t="s">
+      <c r="B26" s="59"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="53"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75">
+      <c r="A27" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="42"/>
-    </row>
-    <row r="28" spans="1:8" ht="61.5" customHeight="1">
-      <c r="A28" s="41" t="s">
+      <c r="D27" s="53"/>
+    </row>
+    <row r="28" spans="1:8" ht="31.5">
+      <c r="A28" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="13"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="42"/>
+      <c r="D28" s="53"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="50" t="s">
+    <row r="29" spans="1:8" ht="15.75">
+      <c r="A29" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="42"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="53"/>
-      <c r="B30" s="54" t="s">
+      <c r="C29" s="38"/>
+      <c r="D29" s="53"/>
+    </row>
+    <row r="30" spans="1:8" ht="31.5">
+      <c r="A30" s="48"/>
+      <c r="B30" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="42"/>
-    </row>
-    <row r="31" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A31" s="48" t="s">
+      <c r="C30" s="38"/>
+      <c r="D30" s="53"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75">
+      <c r="A31" s="56" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="42"/>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A32" s="47"/>
+      <c r="D31" s="53"/>
+    </row>
+    <row r="32" spans="1:8" ht="31.5">
+      <c r="A32" s="57"/>
       <c r="B32" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="42"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A33" s="48" t="s">
+      <c r="D32" s="53"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75">
+      <c r="A33" s="56" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="42"/>
-    </row>
-    <row r="34" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A34" s="47"/>
+      <c r="D33" s="53"/>
+    </row>
+    <row r="34" spans="1:4" ht="31.5">
+      <c r="A34" s="57"/>
       <c r="B34" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="42"/>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1">
-      <c r="A35" s="50" t="s">
+      <c r="D34" s="53"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75">
+      <c r="A35" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="42"/>
-    </row>
-    <row r="36" spans="1:4" ht="34.5" customHeight="1">
-      <c r="A36" s="53"/>
-      <c r="B36" s="54" t="s">
+      <c r="C35" s="38"/>
+      <c r="D35" s="53"/>
+    </row>
+    <row r="36" spans="1:4" ht="31.5">
+      <c r="A36" s="48"/>
+      <c r="B36" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="42"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A37" s="48" t="s">
+      <c r="C36" s="38"/>
+      <c r="D36" s="53"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75">
+      <c r="A37" s="56" t="s">
         <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="6"/>
-      <c r="D37" s="42"/>
-    </row>
-    <row r="38" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A38" s="47"/>
+      <c r="D37" s="53"/>
+    </row>
+    <row r="38" spans="1:4" ht="31.5">
+      <c r="A38" s="57"/>
       <c r="B38" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="D38" s="42"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A39" s="48" t="s">
+      <c r="D38" s="53"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75">
+      <c r="A39" s="56" t="s">
         <v>29</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="D39" s="42"/>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A40" s="47"/>
+      <c r="D39" s="53"/>
+    </row>
+    <row r="40" spans="1:4" ht="31.5">
+      <c r="A40" s="57"/>
       <c r="B40" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="D40" s="42"/>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A41" s="55" t="s">
+      <c r="D40" s="53"/>
+    </row>
+    <row r="41" spans="1:4" ht="15.75">
+      <c r="A41" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="42"/>
-    </row>
-    <row r="42" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A42" s="56"/>
-      <c r="B42" s="57" t="s">
+      <c r="C41" s="38"/>
+      <c r="D41" s="53"/>
+    </row>
+    <row r="42" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A42" s="61"/>
+      <c r="B42" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="58"/>
-      <c r="D42" s="49"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/apps/reports/excell/digital_month_template.xlsx
+++ b/apps/reports/excell/digital_month_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D41261-6883-4EC0-91C1-D2BDF4FA8DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCF351C-1C46-4B79-9E4C-40E573F4BFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -968,7 +968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1346,6 +1346,6 @@
     <mergeCell ref="A41:A42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="72" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/apps/reports/excell/digital_month_template.xlsx
+++ b/apps/reports/excell/digital_month_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCF351C-1C46-4B79-9E4C-40E573F4BFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D17377F-DB14-4B2B-82B8-744C9A1FD6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -968,7 +968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/apps/reports/excell/digital_month_template.xlsx
+++ b/apps/reports/excell/digital_month_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\erp\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D17377F-DB14-4B2B-82B8-744C9A1FD6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE7D082-62A6-4E2E-A3C8-30438E19CEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Основные показатели с нарастающим итогом с нач. года</t>
   </si>
@@ -40,9 +40,6 @@
     <t xml:space="preserve"> в т.ч. до 14 лет включительно</t>
   </si>
   <si>
-    <t>в т.ч. от 15 до 30 лет</t>
-  </si>
-  <si>
     <t>1.     обслуженные в стационаре</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>до 14 лет включительно</t>
   </si>
   <si>
-    <t>от 15 до 30 лет</t>
-  </si>
-  <si>
     <t>1.   Книговыдача в стационаре</t>
   </si>
   <si>
@@ -109,9 +103,6 @@
     <t xml:space="preserve">  из них до 14 лет включительно                       </t>
   </si>
   <si>
-    <t>из них от 15 до 30 лет</t>
-  </si>
-  <si>
     <t>Мероприятия в стационаре</t>
   </si>
   <si>
@@ -119,6 +110,24 @@
   </si>
   <si>
     <t>Мероприятия вне стационара</t>
+  </si>
+  <si>
+    <t>в т.ч. от 18 до 35 лет</t>
+  </si>
+  <si>
+    <t>от 18 до 35 лет</t>
+  </si>
+  <si>
+    <t>в т.ч. от 15 до 17 лет</t>
+  </si>
+  <si>
+    <t>от 15 до 17 лет</t>
+  </si>
+  <si>
+    <t>из них от 15 до 17 лет</t>
+  </si>
+  <si>
+    <t>из них от 18 до 35 лет</t>
   </si>
 </sst>
 </file>
@@ -523,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -651,6 +660,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -685,6 +695,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -966,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -981,10 +994,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25">
-      <c r="A1" s="49"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="50"/>
+      <c r="A1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="3" spans="1:4" ht="32.25" thickBot="1">
       <c r="A3" s="11" t="s">
@@ -1012,338 +1025,408 @@
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="45"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75">
+      <c r="D5" s="46"/>
+    </row>
+    <row r="6" spans="1:4" s="45" customFormat="1" ht="15.75">
       <c r="A6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="60"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="47"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="46"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="42" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="47"/>
+    </row>
+    <row r="9" spans="1:4" ht="31.5">
+      <c r="A9" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="46"/>
-    </row>
-    <row r="8" spans="1:4" ht="31.5">
-      <c r="A8" s="42" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="47"/>
+    </row>
+    <row r="10" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A10" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="46"/>
-    </row>
-    <row r="9" spans="1:4" ht="32.25" thickBot="1">
-      <c r="A9" s="43" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="47"/>
+    </row>
+    <row r="11" spans="1:4" ht="34.5" thickBot="1">
+      <c r="A11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="46"/>
-    </row>
-    <row r="10" spans="1:4" ht="34.5" thickBot="1">
-      <c r="A10" s="22" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="20" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="46"/>
+    </row>
+    <row r="13" spans="1:4" s="45" customFormat="1" ht="15.75">
+      <c r="A13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="60"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="60"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="47"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="45"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="9" t="s">
+      <c r="B15" s="47"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="47"/>
+    </row>
+    <row r="16" spans="1:4" ht="31.5">
+      <c r="A16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="46"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75">
-      <c r="A13" s="9" t="s">
+      <c r="B16" s="47"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="47"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A17" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="46"/>
-    </row>
-    <row r="14" spans="1:4" ht="31.5">
-      <c r="A14" s="10" t="s">
+      <c r="B17" s="47"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="47"/>
+    </row>
+    <row r="18" spans="1:8" ht="34.5" thickBot="1">
+      <c r="A18" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="46"/>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A15" s="25" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75">
+      <c r="A19" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="53"/>
+    </row>
+    <row r="20" spans="1:8" s="45" customFormat="1" ht="15.75">
+      <c r="A20" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="63"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75">
+      <c r="A21" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="54"/>
+    </row>
+    <row r="22" spans="1:8" ht="31.5">
+      <c r="A22" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="46"/>
-    </row>
-    <row r="16" spans="1:4" ht="34.5" thickBot="1">
-      <c r="A16" s="28" t="s">
+      <c r="B22" s="60"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="54"/>
+    </row>
+    <row r="23" spans="1:8" ht="47.25">
+      <c r="A23" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75">
-      <c r="A17" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="52"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75">
-      <c r="A18" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="53"/>
-    </row>
-    <row r="19" spans="1:8" ht="31.5">
-      <c r="A19" s="44" t="s">
+      <c r="B23" s="60"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="54"/>
+    </row>
+    <row r="24" spans="1:8" ht="31.5">
+      <c r="A24" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="53"/>
-    </row>
-    <row r="20" spans="1:8" ht="47.25">
-      <c r="A20" s="44" t="s">
+      <c r="B24" s="60"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="54"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75">
+      <c r="A25" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="53"/>
-    </row>
-    <row r="21" spans="1:8" ht="31.5">
-      <c r="A21" s="44" t="s">
+      <c r="B25" s="60"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="54"/>
+    </row>
+    <row r="26" spans="1:8" ht="31.5">
+      <c r="A26" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="53"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75">
-      <c r="A22" s="33" t="s">
+      <c r="B26" s="60"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="54"/>
+    </row>
+    <row r="27" spans="1:8" ht="48" thickBot="1">
+      <c r="A27" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="53"/>
-    </row>
-    <row r="23" spans="1:8" ht="31.5">
-      <c r="A23" s="33" t="s">
+      <c r="B27" s="60"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="54"/>
+    </row>
+    <row r="28" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A28" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="53"/>
-    </row>
-    <row r="24" spans="1:8" ht="48" thickBot="1">
-      <c r="A24" s="34" t="s">
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="55"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75">
+      <c r="A29" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="54"/>
+    </row>
+    <row r="30" spans="1:8" s="45" customFormat="1" ht="15.75">
+      <c r="A30" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="60"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="54"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75">
+      <c r="A31" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="60"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="54"/>
+    </row>
+    <row r="32" spans="1:8" ht="31.5">
+      <c r="A32" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="53"/>
-    </row>
-    <row r="25" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A25" s="35" t="s">
+      <c r="B32" s="46"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="54"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75">
+      <c r="A33" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="54"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75">
-      <c r="A26" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="53"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75">
-      <c r="A27" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="53"/>
-    </row>
-    <row r="28" spans="1:8" ht="31.5">
-      <c r="A28" s="33" t="s">
+      <c r="B33" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="53"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75">
-      <c r="A29" s="47" t="s">
+      <c r="C33" s="38"/>
+      <c r="D33" s="54"/>
+    </row>
+    <row r="34" spans="1:4" ht="31.5">
+      <c r="A34" s="49"/>
+      <c r="B34" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="C34" s="38"/>
+      <c r="D34" s="54"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75">
+      <c r="A35" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="53"/>
-    </row>
-    <row r="30" spans="1:8" ht="31.5">
-      <c r="A30" s="48"/>
-      <c r="B30" s="39" t="s">
+      <c r="B35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="54"/>
+    </row>
+    <row r="36" spans="1:4" ht="31.5">
+      <c r="A36" s="58"/>
+      <c r="B36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="54"/>
+    </row>
+    <row r="37" spans="1:4" s="45" customFormat="1" ht="15.75">
+      <c r="A37" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="54"/>
+    </row>
+    <row r="38" spans="1:4" s="45" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A38" s="58"/>
+      <c r="B38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="54"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75">
+      <c r="A39" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="54"/>
+    </row>
+    <row r="40" spans="1:4" ht="31.5">
+      <c r="A40" s="58"/>
+      <c r="B40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="54"/>
+    </row>
+    <row r="41" spans="1:4" ht="15.75">
+      <c r="A41" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="53"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75">
-      <c r="A31" s="56" t="s">
+      <c r="B41" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="38"/>
+      <c r="D41" s="54"/>
+    </row>
+    <row r="42" spans="1:4" ht="31.5">
+      <c r="A42" s="49"/>
+      <c r="B42" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="38"/>
+      <c r="D42" s="54"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.75">
+      <c r="A43" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="53"/>
-    </row>
-    <row r="32" spans="1:8" ht="31.5">
-      <c r="A32" s="57"/>
-      <c r="B32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="53"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75">
-      <c r="A33" s="56" t="s">
+      <c r="B43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="54"/>
+    </row>
+    <row r="44" spans="1:4" ht="31.5">
+      <c r="A44" s="58"/>
+      <c r="B44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="54"/>
+    </row>
+    <row r="45" spans="1:4" s="45" customFormat="1" ht="15.75">
+      <c r="A45" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="54"/>
+    </row>
+    <row r="46" spans="1:4" s="45" customFormat="1" ht="31.5">
+      <c r="A46" s="58"/>
+      <c r="B46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="54"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75">
+      <c r="A47" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="54"/>
+    </row>
+    <row r="48" spans="1:4" ht="31.5">
+      <c r="A48" s="58"/>
+      <c r="B48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="54"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75">
+      <c r="A49" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="53"/>
-    </row>
-    <row r="34" spans="1:4" ht="31.5">
-      <c r="A34" s="57"/>
-      <c r="B34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="53"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.75">
-      <c r="A35" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="53"/>
-    </row>
-    <row r="36" spans="1:4" ht="31.5">
-      <c r="A36" s="48"/>
-      <c r="B36" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="53"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.75">
-      <c r="A37" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="53"/>
-    </row>
-    <row r="38" spans="1:4" ht="31.5">
-      <c r="A38" s="57"/>
-      <c r="B38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="53"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75">
-      <c r="A39" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="53"/>
-    </row>
-    <row r="40" spans="1:4" ht="31.5">
-      <c r="A40" s="57"/>
-      <c r="B40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="53"/>
-    </row>
-    <row r="41" spans="1:4" ht="15.75">
-      <c r="A41" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="53"/>
-    </row>
-    <row r="42" spans="1:4" ht="32.25" thickBot="1">
-      <c r="A42" s="61"/>
-      <c r="B42" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="55"/>
+      <c r="B49" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="38"/>
+      <c r="D49" s="54"/>
+    </row>
+    <row r="50" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A50" s="62"/>
+      <c r="B50" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="41"/>
+      <c r="D50" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="A35:A36"/>
+  <mergeCells count="17">
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="A41:A42"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="D17:D42"/>
-    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="D19:D50"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="A47:A48"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A49:A50"/>
     <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A41:A42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" orientation="portrait" r:id="rId1"/>

--- a/apps/reports/excell/digital_month_template.xlsx
+++ b/apps/reports/excell/digital_month_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\erp\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE7D082-62A6-4E2E-A3C8-30438E19CEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20BB683-B913-4B4C-9EA2-266A7EF9A5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,7 +661,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -677,27 +684,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -982,7 +982,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -994,10 +994,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25">
-      <c r="A1" s="50"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="51"/>
+      <c r="A1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="54"/>
     </row>
     <row r="3" spans="1:4" ht="32.25" thickBot="1">
       <c r="A3" s="11" t="s">
@@ -1025,49 +1025,49 @@
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="46"/>
+      <c r="D5" s="48"/>
     </row>
     <row r="6" spans="1:4" s="45" customFormat="1" ht="15.75">
       <c r="A6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="15"/>
-      <c r="D6" s="60"/>
+      <c r="D6" s="49"/>
     </row>
     <row r="7" spans="1:4" ht="15.75">
       <c r="A7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="47"/>
+      <c r="D7" s="50"/>
     </row>
     <row r="8" spans="1:4" ht="15.75">
       <c r="A8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="47"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="47"/>
+      <c r="D8" s="50"/>
     </row>
     <row r="9" spans="1:4" ht="31.5">
       <c r="A9" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="47"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="47"/>
+      <c r="D9" s="50"/>
     </row>
     <row r="10" spans="1:4" ht="32.25" thickBot="1">
       <c r="A10" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="47"/>
+      <c r="D10" s="50"/>
     </row>
     <row r="11" spans="1:4" ht="34.5" thickBot="1">
       <c r="A11" s="22" t="s">
@@ -1081,49 +1081,49 @@
       <c r="A12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="46"/>
+      <c r="D12" s="48"/>
     </row>
     <row r="13" spans="1:4" s="45" customFormat="1" ht="15.75">
       <c r="A13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="60"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="21"/>
-      <c r="D13" s="60"/>
+      <c r="D13" s="49"/>
     </row>
     <row r="14" spans="1:4" ht="15.75">
       <c r="A14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="47"/>
+      <c r="D14" s="50"/>
     </row>
     <row r="15" spans="1:4" ht="15.75">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="47"/>
+      <c r="D15" s="50"/>
     </row>
     <row r="16" spans="1:4" ht="31.5">
       <c r="A16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="47"/>
+      <c r="D16" s="50"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" thickBot="1">
       <c r="A17" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="47"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="47"/>
+      <c r="D17" s="50"/>
     </row>
     <row r="18" spans="1:8" ht="34.5" thickBot="1">
       <c r="A18" s="28" t="s">
@@ -1137,73 +1137,73 @@
       <c r="A19" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="59"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="53"/>
+      <c r="D19" s="56"/>
     </row>
     <row r="20" spans="1:8" s="45" customFormat="1" ht="15.75">
       <c r="A20" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="60"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="63"/>
+      <c r="D20" s="57"/>
     </row>
     <row r="21" spans="1:8" ht="15.75">
       <c r="A21" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="60"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="54"/>
+      <c r="D21" s="58"/>
     </row>
     <row r="22" spans="1:8" ht="31.5">
       <c r="A22" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="60"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="54"/>
+      <c r="D22" s="58"/>
     </row>
     <row r="23" spans="1:8" ht="47.25">
       <c r="A23" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="60"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="54"/>
+      <c r="D23" s="58"/>
     </row>
     <row r="24" spans="1:8" ht="31.5">
       <c r="A24" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="60"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="54"/>
+      <c r="D24" s="58"/>
     </row>
     <row r="25" spans="1:8" ht="15.75">
       <c r="A25" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="60"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="54"/>
+      <c r="D25" s="58"/>
     </row>
     <row r="26" spans="1:8" ht="31.5">
       <c r="A26" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="60"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="54"/>
+      <c r="D26" s="58"/>
     </row>
     <row r="27" spans="1:8" ht="48" thickBot="1">
       <c r="A27" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="60"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="54"/>
+      <c r="D27" s="58"/>
     </row>
     <row r="28" spans="1:8" ht="19.5" thickBot="1">
       <c r="A28" s="35" t="s">
@@ -1211,205 +1211,206 @@
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
-      <c r="D28" s="55"/>
+      <c r="D28" s="59"/>
     </row>
     <row r="29" spans="1:8" ht="15.75">
       <c r="A29" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="60"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="26"/>
-      <c r="D29" s="54"/>
+      <c r="D29" s="58"/>
     </row>
     <row r="30" spans="1:8" s="45" customFormat="1" ht="15.75">
       <c r="A30" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="60"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="26"/>
-      <c r="D30" s="54"/>
+      <c r="D30" s="58"/>
     </row>
     <row r="31" spans="1:8" ht="15.75">
       <c r="A31" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="60"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="54"/>
+      <c r="D31" s="58"/>
     </row>
     <row r="32" spans="1:8" ht="31.5">
       <c r="A32" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="46"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="54"/>
+      <c r="D32" s="58"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="15.75">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="51" t="s">
         <v>23</v>
       </c>
       <c r="B33" s="37" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="38"/>
-      <c r="D33" s="54"/>
+      <c r="D33" s="58"/>
     </row>
     <row r="34" spans="1:4" ht="31.5">
-      <c r="A34" s="49"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="39" t="s">
         <v>25</v>
       </c>
       <c r="C34" s="38"/>
-      <c r="D34" s="54"/>
+      <c r="D34" s="58"/>
     </row>
     <row r="35" spans="1:4" ht="15.75">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="46" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="54"/>
+      <c r="D35" s="58"/>
     </row>
     <row r="36" spans="1:4" ht="31.5">
-      <c r="A36" s="58"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="6"/>
-      <c r="D36" s="54"/>
+      <c r="D36" s="58"/>
     </row>
     <row r="37" spans="1:4" s="45" customFormat="1" ht="15.75">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="46" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="6"/>
-      <c r="D37" s="54"/>
+      <c r="D37" s="58"/>
     </row>
     <row r="38" spans="1:4" s="45" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A38" s="58"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="D38" s="54"/>
+      <c r="D38" s="58"/>
     </row>
     <row r="39" spans="1:4" ht="15.75">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="46" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="D39" s="54"/>
+      <c r="D39" s="58"/>
     </row>
     <row r="40" spans="1:4" ht="31.5">
-      <c r="A40" s="58"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="D40" s="54"/>
+      <c r="D40" s="58"/>
     </row>
     <row r="41" spans="1:4" ht="15.75">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="51" t="s">
         <v>27</v>
       </c>
       <c r="B41" s="37" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="38"/>
-      <c r="D41" s="54"/>
+      <c r="D41" s="58"/>
     </row>
     <row r="42" spans="1:4" ht="31.5">
-      <c r="A42" s="49"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="39" t="s">
         <v>25</v>
       </c>
       <c r="C42" s="38"/>
-      <c r="D42" s="54"/>
+      <c r="D42" s="58"/>
     </row>
     <row r="43" spans="1:4" ht="15.75">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="46" t="s">
         <v>28</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C43" s="6"/>
-      <c r="D43" s="54"/>
+      <c r="D43" s="58"/>
     </row>
     <row r="44" spans="1:4" ht="31.5">
-      <c r="A44" s="58"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C44" s="6"/>
-      <c r="D44" s="54"/>
+      <c r="D44" s="58"/>
     </row>
     <row r="45" spans="1:4" s="45" customFormat="1" ht="15.75">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="46" t="s">
         <v>34</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="6"/>
-      <c r="D45" s="54"/>
+      <c r="D45" s="58"/>
     </row>
     <row r="46" spans="1:4" s="45" customFormat="1" ht="31.5">
-      <c r="A46" s="58"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C46" s="6"/>
-      <c r="D46" s="54"/>
+      <c r="D46" s="58"/>
     </row>
     <row r="47" spans="1:4" ht="15.75">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="46" t="s">
         <v>35</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C47" s="6"/>
-      <c r="D47" s="54"/>
+      <c r="D47" s="58"/>
     </row>
     <row r="48" spans="1:4" ht="31.5">
-      <c r="A48" s="58"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C48" s="6"/>
-      <c r="D48" s="54"/>
+      <c r="D48" s="58"/>
     </row>
     <row r="49" spans="1:4" ht="15.75">
-      <c r="A49" s="61" t="s">
+      <c r="A49" s="62" t="s">
         <v>29</v>
       </c>
       <c r="B49" s="37" t="s">
         <v>24</v>
       </c>
       <c r="C49" s="38"/>
-      <c r="D49" s="54"/>
+      <c r="D49" s="58"/>
     </row>
     <row r="50" spans="1:4" ht="32.25" thickBot="1">
-      <c r="A50" s="62"/>
+      <c r="A50" s="63"/>
       <c r="B50" s="40" t="s">
         <v>25</v>
       </c>
       <c r="C50" s="41"/>
-      <c r="D50" s="56"/>
+      <c r="D50" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="D5:D10"/>
     <mergeCell ref="A41:A42"/>
@@ -1426,7 +1427,6 @@
     <mergeCell ref="B19:B27"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" orientation="portrait" r:id="rId1"/>
